--- a/Figures/summaries/exceedances/model_summary.xlsx
+++ b/Figures/summaries/exceedances/model_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries/exceedances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E63FE18-FE71-2540-A2A5-B0BF74E52999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B82628D-180B-AB43-BD91-7FB31C65D789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" activeTab="1" xr2:uid="{BBA561B4-B8F2-A543-83D5-E4C6EA31C59C}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="exceedances" sheetId="1" r:id="rId1"/>
     <sheet name="PCAs" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PCAs!$A$1:$P$22</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="53">
   <si>
     <t>Analyte</t>
   </si>
@@ -175,6 +178,27 @@
   </si>
   <si>
     <t>PEV</t>
+  </si>
+  <si>
+    <t>p-values</t>
+  </si>
+  <si>
+    <t>estimates</t>
+  </si>
+  <si>
+    <t>probabilities</t>
+  </si>
+  <si>
+    <t>Mn, Ba, Mo, Ni, V</t>
+  </si>
+  <si>
+    <t>Co, Mn, Al, Cr, V</t>
+  </si>
+  <si>
+    <t>Cu, As, Co, Pb, Mn</t>
+  </si>
+  <si>
+    <t>Co, Mn, Ba, Ni, Zn</t>
   </si>
 </sst>
 </file>
@@ -205,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +239,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,10 +435,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -427,6 +474,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,15 +792,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0D4DAB-8658-6540-A6EF-06375FD0FCC4}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -765,8 +820,17 @@
       <c r="F1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -783,7 +847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -800,7 +864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -817,7 +881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -834,7 +898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -854,7 +918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -871,7 +935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -891,7 +955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -904,14 +968,14 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -928,7 +992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -948,7 +1012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -965,7 +1029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -982,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -999,7 +1063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1016,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1162,1144 +1226,1171 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="5" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4.0060474201556499E-2</v>
+      </c>
+      <c r="C3" s="17">
+        <v>4.5899353023256498E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.14069987105126899</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.39629752668738999</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="30">
+        <v>-0.49857259999999998</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <v>-9.8974000000000006E-2</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
+        <v>-0.35034949999999998</v>
+      </c>
+      <c r="P3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.18891196322912801</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.19985038826043</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="30">
+        <v>-0.40342309999999998</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>-0.1838262</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.1791758</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.208938857082339</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.42630185486758099</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
+        <v>-0.37373450000000003</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="31">
+        <v>-0.4276971</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6.7235299608236404E-2</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.34904835434568698</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.12507525170422901</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.25352620477384702</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
+        <v>-0.31672460000000002</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12">
+        <v>-0.92897410000000002</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0.25886994744806002</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.35850739734348402</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0.51309360819088301</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30">
+        <v>-0.29654180000000002</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="31">
+        <v>-0.50946460000000005</v>
+      </c>
+      <c r="N7" s="12">
+        <v>-9.3412999999999996E-2</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0.36996024003700601</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.14812365127385699</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>-0.27326309999999998</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="31">
+        <v>-0.31132100000000001</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>6.5675810482811597E-2</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.68295558324443895</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>-0.26129930000000001</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>-0.16817499999999999</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0.38075738138961801</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.195732459604327</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>-0.22599340000000001</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>-0.19830320000000001</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0.14354497999999999</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>-0.14856659999999999</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>-0.1089088</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.22485450279694799</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>9.9065779803591505E-2</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-0.14351729999999999</v>
+      </c>
+      <c r="J12" s="12">
+        <v>2.9493399999999999E-3</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <v>-0.18846299999999999</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0.56497729732997803</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.136810488190062</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.39798726882077701</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>-8.3808099999999996E-2</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="31">
+        <v>-0.29982110000000001</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>3.9372908324022099E-2</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-7.5448500000000002E-2</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>-0.16369040000000001</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.17510497999999999</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6">
+        <v>6.88750127946237E-2</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0.34445449610162798</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>-6.5705100000000002E-2</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>-9.7653299999999998E-2</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.20501242169289499</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0.42084714956873498</v>
+      </c>
+      <c r="F16" s="17">
+        <v>-0.39059240710494703</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>-6.4440300000000006E-2</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.197076</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>-0.2150656</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0.40530648000000002</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>-5.3535100000000002E-2</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="13">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="11">
+        <v>-2.8747999999999999E-2</v>
+      </c>
+      <c r="N17" s="12">
+        <v>6.3422759999999995E-2</v>
+      </c>
+      <c r="O17" s="12">
+        <v>-0.1194252</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.86459871719232595</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>4.2584655578084003E-2</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-1.3967000000000001E-3</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
+        <v>1</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
+      <c r="M18" s="31">
+        <v>-0.30111870000000002</v>
+      </c>
+      <c r="N18" s="12">
+        <v>-0.7172444</v>
+      </c>
+      <c r="O18" s="12">
+        <v>0</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="28">
+        <v>0.38345987651346702</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0.228119921464676</v>
+      </c>
+      <c r="F19" s="17">
+        <v>-3.5890256591688999E-2</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>-0.1587258</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0.45095255000000001</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6">
+        <v>4.5790319968121503E-2</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.18804617764321799</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.71011378999999997</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <v>0</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0.14768091999999999</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
+        <v>-0.50642209999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13">
-        <v>0</v>
-      </c>
-      <c r="L3" s="14">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
         <v>-0.11323950000000001</v>
       </c>
-      <c r="N3" s="13">
-        <v>0</v>
-      </c>
-      <c r="O3" s="13">
-        <v>0</v>
-      </c>
-      <c r="P3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="7">
-        <v>6.88750127946237E-2</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0.34445449610162798</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>-6.5705100000000002E-2</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
-        <v>-9.7653299999999998E-2</v>
-      </c>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>-0.14856659999999999</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
-        <v>0</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
-        <v>-0.1089088</v>
-      </c>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="O5" s="13">
-        <v>0</v>
-      </c>
-      <c r="P5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.18891196322912801</v>
-      </c>
-      <c r="C6" s="18">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0.19985038826043</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>-0.40342309999999998</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0</v>
-      </c>
-      <c r="L6" s="14">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12">
-        <v>-0.1838262</v>
-      </c>
-      <c r="N6" s="13">
-        <v>0.1791758</v>
-      </c>
-      <c r="O6" s="13">
-        <v>0</v>
-      </c>
-      <c r="P6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0.36996024003700601</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0.14812365127385699</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>-0.27326309999999998</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
-        <v>0</v>
-      </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12">
-        <v>-0.31132100000000001</v>
-      </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="O7" s="13">
-        <v>0</v>
-      </c>
-      <c r="P7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="7">
-        <v>4.5790319968121503E-2</v>
-      </c>
-      <c r="C8" s="18">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="18">
-        <v>0.18804617764321799</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0.71011378999999997</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0</v>
-      </c>
-      <c r="L8" s="14">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0.14768091999999999</v>
-      </c>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="14">
-        <v>-0.50642209999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="18">
-        <v>6.5675810482811597E-2</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0.68295558324443895</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>-0.26129930000000001</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0</v>
-      </c>
-      <c r="K9" s="13">
-        <v>0</v>
-      </c>
-      <c r="L9" s="14">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12">
-        <v>-0.16817499999999999</v>
-      </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="O9" s="13">
-        <v>0</v>
-      </c>
-      <c r="P9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.20501242169289499</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0.42084714956873498</v>
-      </c>
-      <c r="F10" s="18">
-        <v>-0.39059240710494703</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>-6.4440300000000006E-2</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0.197076</v>
-      </c>
-      <c r="K10" s="13">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0</v>
-      </c>
-      <c r="M10" s="12">
-        <v>-0.2150656</v>
-      </c>
-      <c r="N10" s="13">
-        <v>0.40530648000000002</v>
-      </c>
-      <c r="O10" s="13">
-        <v>0</v>
-      </c>
-      <c r="P10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0.208938857082339</v>
-      </c>
-      <c r="C11" s="18">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0.42630185486758099</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>-0.37373450000000003</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0</v>
-      </c>
-      <c r="K11" s="13">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
-        <v>-0.4276971</v>
-      </c>
-      <c r="N11" s="13">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13">
-        <v>0</v>
-      </c>
-      <c r="P11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7">
-        <v>4.0060474201556499E-2</v>
-      </c>
-      <c r="C12" s="18">
-        <v>4.5899353023256498E-2</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="18">
-        <v>0.14069987105126899</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0.39629752668738999</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>-0.49857259999999998</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-      <c r="L12" s="14">
-        <v>0</v>
-      </c>
-      <c r="M12" s="12">
-        <v>-9.8974000000000006E-2</v>
-      </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="O12" s="13">
-        <v>-0.35034949999999998</v>
-      </c>
-      <c r="P12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.22485450279694799</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18">
-        <v>9.9065779803591505E-2</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>-0.14351729999999999</v>
-      </c>
-      <c r="J13" s="13">
-        <v>2.9493399999999999E-3</v>
-      </c>
-      <c r="K13" s="13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="14">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12">
-        <v>-0.18846299999999999</v>
-      </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="7">
-        <v>6.7235299608236404E-2</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0.34904835434568698</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0.12507525170422901</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0.25352620477384702</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <v>-0.31672460000000002</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
-        <v>0</v>
-      </c>
-      <c r="L14" s="14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13">
-        <v>0</v>
-      </c>
-      <c r="O14" s="13">
-        <v>-0.92897410000000002</v>
-      </c>
-      <c r="P14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0.25886994744806002</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0.35850739734348402</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0.51309360819088301</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <v>-0.29654180000000002</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="12">
-        <v>-0.50946460000000005</v>
-      </c>
-      <c r="N15" s="13">
-        <v>-9.3412999999999996E-2</v>
-      </c>
-      <c r="O15" s="13">
-        <v>0</v>
-      </c>
-      <c r="P15" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0.38075738138961801</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="18">
-        <v>0.195732459604327</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <v>-0.22599340000000001</v>
-      </c>
-      <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13">
-        <v>0</v>
-      </c>
-      <c r="L16" s="14">
-        <v>0</v>
-      </c>
-      <c r="M16" s="12">
-        <v>-0.19830320000000001</v>
-      </c>
-      <c r="N16" s="13">
-        <v>0.14354497999999999</v>
-      </c>
-      <c r="O16" s="13">
-        <v>0</v>
-      </c>
-      <c r="P16" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.56497729732997803</v>
-      </c>
-      <c r="C17" s="18">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0.136810488190062</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0.39798726882077701</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <v>-8.3808099999999996E-2</v>
-      </c>
-      <c r="J17" s="13">
-        <v>0</v>
-      </c>
-      <c r="K17" s="13">
-        <v>0</v>
-      </c>
-      <c r="L17" s="14">
-        <v>0</v>
-      </c>
-      <c r="M17" s="12">
-        <v>-0.29982110000000001</v>
-      </c>
-      <c r="N17" s="13">
-        <v>0</v>
-      </c>
-      <c r="O17" s="13">
-        <v>0</v>
-      </c>
-      <c r="P17" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0</v>
-      </c>
-      <c r="C18" s="18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="18">
-        <v>3.9372908324022099E-2</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
-        <v>-7.5448500000000002E-2</v>
-      </c>
-      <c r="J18" s="13">
-        <v>0</v>
-      </c>
-      <c r="K18" s="13">
-        <v>0</v>
-      </c>
-      <c r="L18" s="14">
-        <v>0</v>
-      </c>
-      <c r="M18" s="12">
-        <v>-0.16369040000000001</v>
-      </c>
-      <c r="N18" s="13">
-        <v>0.17510497999999999</v>
-      </c>
-      <c r="O18" s="13">
-        <v>0</v>
-      </c>
-      <c r="P18" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="N21" s="12">
+        <v>0</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="7">
-        <v>0</v>
-      </c>
-      <c r="C19" s="18">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0</v>
-      </c>
-      <c r="G19" s="18">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-      <c r="J19" s="13">
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
         <v>0.67593694000000004</v>
       </c>
-      <c r="K19" s="13">
-        <v>0</v>
-      </c>
-      <c r="L19" s="14">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12">
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0</v>
+      </c>
+      <c r="M22" s="14">
         <v>-5.7654999999999998E-3</v>
       </c>
-      <c r="N19" s="13">
-        <v>0</v>
-      </c>
-      <c r="O19" s="13">
-        <v>0</v>
-      </c>
-      <c r="P19" s="14">
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0</v>
+      </c>
+      <c r="P22" s="16">
         <v>-0.86228570000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0</v>
-      </c>
-      <c r="C20" s="18">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="18">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
-        <v>-5.3535100000000002E-2</v>
-      </c>
-      <c r="J20" s="13">
-        <v>0</v>
-      </c>
-      <c r="K20" s="13">
-        <v>0</v>
-      </c>
-      <c r="L20" s="14">
-        <v>-1</v>
-      </c>
-      <c r="M20" s="12">
-        <v>-2.8747999999999999E-2</v>
-      </c>
-      <c r="N20" s="13">
-        <v>6.3422759999999995E-2</v>
-      </c>
-      <c r="O20" s="13">
-        <v>-0.1194252</v>
-      </c>
-      <c r="P20" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="7">
-        <v>0.38345987651346702</v>
-      </c>
-      <c r="C21" s="18">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="18">
-        <v>0.228119921464676</v>
-      </c>
-      <c r="F21" s="18">
-        <v>-3.5890256591688999E-2</v>
-      </c>
-      <c r="G21" s="18">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="13">
-        <v>0</v>
-      </c>
-      <c r="K21" s="13">
-        <v>0</v>
-      </c>
-      <c r="L21" s="14">
-        <v>0</v>
-      </c>
-      <c r="M21" s="12">
-        <v>-0.1587258</v>
-      </c>
-      <c r="N21" s="13">
-        <v>0.45095255000000001</v>
-      </c>
-      <c r="O21" s="13">
-        <v>0</v>
-      </c>
-      <c r="P21" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="9">
-        <v>0</v>
-      </c>
-      <c r="C22" s="19">
-        <v>0.86459871719232595</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="19">
-        <v>4.2584655578084003E-2</v>
-      </c>
-      <c r="F22" s="19">
-        <v>0</v>
-      </c>
-      <c r="G22" s="19">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>-1</v>
-      </c>
-      <c r="I22" s="15">
-        <v>-1.3967000000000001E-3</v>
-      </c>
-      <c r="J22" s="16">
-        <v>0</v>
-      </c>
-      <c r="K22" s="16">
-        <v>1</v>
-      </c>
-      <c r="L22" s="17">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <v>-0.30111870000000002</v>
-      </c>
-      <c r="N22" s="16">
-        <v>-0.7172444</v>
-      </c>
-      <c r="O22" s="16">
-        <v>0</v>
-      </c>
-      <c r="P22" s="17">
-        <v>0</v>
-      </c>
-    </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>0.05</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <v>0.37</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="23">
         <v>0.1</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <v>0.06</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="24">
         <v>0.43</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="24">
         <v>0.1</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="24">
         <v>0.05</v>
       </c>
-      <c r="L23" s="28">
-        <v>0</v>
-      </c>
-      <c r="M23" s="24">
+      <c r="L23" s="27">
+        <v>0</v>
+      </c>
+      <c r="M23" s="23">
         <v>0.31</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="23">
         <v>0.1</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O23" s="23">
         <v>0.09</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P23" s="25">
         <v>0.06</v>
       </c>
     </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F25" s="4"/>
+      <c r="F25" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P22" xr:uid="{0B92E129-2BB0-994E-845F-07E029B53A76}">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
